--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H2">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I2">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J2">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N2">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O2">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P2">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q2">
-        <v>7.558483866666002</v>
+        <v>7.5764425781</v>
       </c>
       <c r="R2">
-        <v>7.558483866666002</v>
+        <v>30.3057703124</v>
       </c>
       <c r="S2">
-        <v>0.03289416296408729</v>
+        <v>0.02698638004600844</v>
       </c>
       <c r="T2">
-        <v>0.03289416296408729</v>
+        <v>0.01482366133924181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H3">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I3">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J3">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N3">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O3">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P3">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q3">
-        <v>4.789710366194988</v>
+        <v>5.440330026146666</v>
       </c>
       <c r="R3">
-        <v>4.789710366194988</v>
+        <v>32.64198015688</v>
       </c>
       <c r="S3">
-        <v>0.02084459213192605</v>
+        <v>0.0193778032563302</v>
       </c>
       <c r="T3">
-        <v>0.02084459213192605</v>
+        <v>0.01596638707084298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H4">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I4">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J4">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N4">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O4">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P4">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q4">
-        <v>7.974507985334702</v>
+        <v>10.01659366952</v>
       </c>
       <c r="R4">
-        <v>7.974507985334702</v>
+        <v>60.09956201712</v>
       </c>
       <c r="S4">
-        <v>0.03470468017863487</v>
+        <v>0.03567790565897709</v>
       </c>
       <c r="T4">
-        <v>0.03470468017863487</v>
+        <v>0.02939689520493811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H5">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I5">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J5">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N5">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O5">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P5">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q5">
-        <v>18.59228927220747</v>
+        <v>24.65078705077334</v>
       </c>
       <c r="R5">
-        <v>18.59228927220747</v>
+        <v>147.90472230464</v>
       </c>
       <c r="S5">
-        <v>0.0809127602815414</v>
+        <v>0.08780314783989543</v>
       </c>
       <c r="T5">
-        <v>0.0809127602815414</v>
+        <v>0.07234561244666669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H6">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I6">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J6">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N6">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O6">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P6">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q6">
-        <v>2.988799627247438</v>
+        <v>3.339790351786667</v>
       </c>
       <c r="R6">
-        <v>2.988799627247438</v>
+        <v>20.03874211072</v>
       </c>
       <c r="S6">
-        <v>0.01300711409059953</v>
+        <v>0.01189593279144333</v>
       </c>
       <c r="T6">
-        <v>0.01300711409059953</v>
+        <v>0.009801682110425551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.89351730250966</v>
+        <v>6.90892</v>
       </c>
       <c r="H7">
-        <v>6.89351730250966</v>
+        <v>13.81784</v>
       </c>
       <c r="I7">
-        <v>0.2054319360374825</v>
+        <v>0.2006971010378393</v>
       </c>
       <c r="J7">
-        <v>0.2054319360374825</v>
+        <v>0.1527467613647123</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N7">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O7">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P7">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q7">
-        <v>5.300753224533043</v>
+        <v>5.321889259100001</v>
       </c>
       <c r="R7">
-        <v>5.300753224533043</v>
+        <v>21.2875570364</v>
       </c>
       <c r="S7">
-        <v>0.02306862639069333</v>
+        <v>0.01895593144518481</v>
       </c>
       <c r="T7">
-        <v>0.02306862639069333</v>
+        <v>0.01041252319259716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H8">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I8">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J8">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N8">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O8">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P8">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q8">
-        <v>5.553890483090127</v>
+        <v>5.787883561185001</v>
       </c>
       <c r="R8">
-        <v>5.553890483090127</v>
+        <v>34.72730136711</v>
       </c>
       <c r="S8">
-        <v>0.02417026772275744</v>
+        <v>0.02061574727638906</v>
       </c>
       <c r="T8">
-        <v>0.02417026772275744</v>
+        <v>0.01698639398983356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H9">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I9">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J9">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N9">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O9">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P9">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q9">
-        <v>3.519426288238177</v>
+        <v>4.156039777398</v>
       </c>
       <c r="R9">
-        <v>3.519426288238177</v>
+        <v>37.404357996582</v>
       </c>
       <c r="S9">
-        <v>0.0153163761288101</v>
+        <v>0.01480331537697961</v>
       </c>
       <c r="T9">
-        <v>0.0153163761288101</v>
+        <v>0.01829584035770985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H10">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I10">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J10">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N10">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O10">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P10">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q10">
-        <v>5.859580411674869</v>
+        <v>7.651991979252</v>
       </c>
       <c r="R10">
-        <v>5.859580411674869</v>
+        <v>68.86792781326801</v>
       </c>
       <c r="S10">
-        <v>0.02550061577995083</v>
+        <v>0.02725547795452153</v>
       </c>
       <c r="T10">
-        <v>0.02550061577995083</v>
+        <v>0.03368582380569064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H11">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I11">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J11">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N11">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O11">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P11">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q11">
-        <v>13.66140885782149</v>
+        <v>18.831514087344</v>
       </c>
       <c r="R11">
-        <v>13.66140885782149</v>
+        <v>169.483626786096</v>
       </c>
       <c r="S11">
-        <v>0.05945380280164897</v>
+        <v>0.06707559527630851</v>
       </c>
       <c r="T11">
-        <v>0.05945380280164897</v>
+        <v>0.08290064433688296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H12">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I12">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J12">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N12">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O12">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P12">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q12">
-        <v>2.196136963239267</v>
+        <v>2.551371237312</v>
       </c>
       <c r="R12">
-        <v>2.196136963239267</v>
+        <v>22.962341135808</v>
       </c>
       <c r="S12">
-        <v>0.009557483806883198</v>
+        <v>0.009087678437315236</v>
       </c>
       <c r="T12">
-        <v>0.009557483806883198</v>
+        <v>0.01123172138654022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.06528039442825</v>
+        <v>5.277942</v>
       </c>
       <c r="H13">
-        <v>5.06528039442825</v>
+        <v>15.833826</v>
       </c>
       <c r="I13">
-        <v>0.1509491181840172</v>
+        <v>0.1533188485097317</v>
       </c>
       <c r="J13">
-        <v>0.1509491181840172</v>
+        <v>0.1750321064299758</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N13">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O13">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P13">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q13">
-        <v>3.894934937517976</v>
+        <v>4.065559138035001</v>
       </c>
       <c r="R13">
-        <v>3.894934937517976</v>
+        <v>24.39335482821</v>
       </c>
       <c r="S13">
-        <v>0.01695057194396667</v>
+        <v>0.01448103418821779</v>
       </c>
       <c r="T13">
-        <v>0.01695057194396667</v>
+        <v>0.01193168255331861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H14">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I14">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J14">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N14">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O14">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P14">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q14">
-        <v>6.425989883854925</v>
+        <v>6.432807237248333</v>
       </c>
       <c r="R14">
-        <v>6.425989883854925</v>
+        <v>38.59684342349</v>
       </c>
       <c r="S14">
-        <v>0.02796560291374115</v>
+        <v>0.0229128880840316</v>
       </c>
       <c r="T14">
-        <v>0.02796560291374115</v>
+        <v>0.01887912862058012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H15">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I15">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J15">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N15">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O15">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P15">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q15">
-        <v>4.072064041242746</v>
+        <v>4.619132792793111</v>
       </c>
       <c r="R15">
-        <v>4.072064041242746</v>
+        <v>41.572195135138</v>
       </c>
       <c r="S15">
-        <v>0.01772142939453306</v>
+        <v>0.0164527971728594</v>
       </c>
       <c r="T15">
-        <v>0.01772142939453306</v>
+        <v>0.02033448202964878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H16">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I16">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J16">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N16">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O16">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P16">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q16">
-        <v>6.779680759586586</v>
+        <v>8.504626754001333</v>
       </c>
       <c r="R16">
-        <v>6.779680759586586</v>
+        <v>76.541640786012</v>
       </c>
       <c r="S16">
-        <v>0.02950484881417063</v>
+        <v>0.03029246079107575</v>
       </c>
       <c r="T16">
-        <v>0.02950484881417063</v>
+        <v>0.03743931765025924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H17">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I17">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J17">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N17">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O17">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P17">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q17">
-        <v>15.80659096301132</v>
+        <v>20.92984401445155</v>
       </c>
       <c r="R17">
-        <v>15.80659096301132</v>
+        <v>188.368596130064</v>
       </c>
       <c r="S17">
-        <v>0.06878953348527921</v>
+        <v>0.07454959488643137</v>
       </c>
       <c r="T17">
-        <v>0.06878953348527921</v>
+        <v>0.09213797396326112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H18">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I18">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J18">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N18">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O18">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P18">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q18">
-        <v>2.54098527010987</v>
+        <v>2.835661634652444</v>
       </c>
       <c r="R18">
-        <v>2.54098527010987</v>
+        <v>25.520954711872</v>
       </c>
       <c r="S18">
-        <v>0.01105824726741232</v>
+        <v>0.01010028674615877</v>
       </c>
       <c r="T18">
-        <v>0.01105824726741232</v>
+        <v>0.01248323292241563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.86065581822104</v>
+        <v>5.866044666666666</v>
       </c>
       <c r="H19">
-        <v>5.86065581822104</v>
+        <v>17.598134</v>
       </c>
       <c r="I19">
-        <v>0.1746518966084508</v>
+        <v>0.1704026329959644</v>
       </c>
       <c r="J19">
-        <v>0.1746518966084508</v>
+        <v>0.1945353235065849</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N19">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O19">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P19">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q19">
-        <v>4.506536919114374</v>
+        <v>4.518570211398333</v>
       </c>
       <c r="R19">
-        <v>4.506536919114374</v>
+        <v>27.11142126839</v>
       </c>
       <c r="S19">
-        <v>0.01961223473331448</v>
+        <v>0.01609460531540752</v>
       </c>
       <c r="T19">
-        <v>0.01961223473331448</v>
+        <v>0.01326118832042003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H20">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I20">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J20">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N20">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O20">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P20">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q20">
-        <v>7.201814107240193</v>
+        <v>7.723183890088333</v>
       </c>
       <c r="R20">
-        <v>7.201814107240193</v>
+        <v>46.33910334053</v>
       </c>
       <c r="S20">
-        <v>0.03134195310323732</v>
+        <v>0.02750905500499429</v>
       </c>
       <c r="T20">
-        <v>0.03134195310323732</v>
+        <v>0.02266615128416931</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H21">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I21">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J21">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N21">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O21">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P21">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q21">
-        <v>4.563693499034086</v>
+        <v>5.545698892531777</v>
       </c>
       <c r="R21">
-        <v>4.563693499034086</v>
+        <v>49.91129003278599</v>
       </c>
       <c r="S21">
-        <v>0.01986097745573272</v>
+        <v>0.01975311452464298</v>
       </c>
       <c r="T21">
-        <v>0.01986097745573272</v>
+        <v>0.02441343852421293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H22">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I22">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J22">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N22">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O22">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P22">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q22">
-        <v>7.598206878546324</v>
+        <v>10.21059607652933</v>
       </c>
       <c r="R22">
-        <v>7.598206878546324</v>
+        <v>91.89536468876399</v>
       </c>
       <c r="S22">
-        <v>0.03306703562602128</v>
+        <v>0.03636891897181172</v>
       </c>
       <c r="T22">
-        <v>0.03306703562602128</v>
+        <v>0.0449493859007763</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H23">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I23">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J23">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N23">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O23">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P23">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q23">
-        <v>17.71495627013039</v>
+        <v>25.12822600660089</v>
       </c>
       <c r="R23">
-        <v>17.71495627013039</v>
+        <v>226.154034059408</v>
       </c>
       <c r="S23">
-        <v>0.07709464870610121</v>
+        <v>0.08950372815551406</v>
       </c>
       <c r="T23">
-        <v>0.07709464870610121</v>
+        <v>0.1106202144622052</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H24">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I24">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J24">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N24">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O24">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P24">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q24">
-        <v>2.847764141450668</v>
+        <v>3.40447575168711</v>
       </c>
       <c r="R24">
-        <v>2.847764141450668</v>
+        <v>30.640281765184</v>
       </c>
       <c r="S24">
-        <v>0.01239333435178472</v>
+        <v>0.01212633443009459</v>
       </c>
       <c r="T24">
-        <v>0.01239333435178472</v>
+        <v>0.01498728313268419</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.56822598731257</v>
+        <v>7.042732666666666</v>
       </c>
       <c r="H25">
-        <v>6.56822598731257</v>
+        <v>21.128198</v>
       </c>
       <c r="I25">
-        <v>0.1957380132220877</v>
+        <v>0.2045842229443229</v>
       </c>
       <c r="J25">
-        <v>0.1957380132220877</v>
+        <v>0.2335577643084875</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N25">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O25">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P25">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q25">
-        <v>5.050621265436368</v>
+        <v>5.424964152638333</v>
       </c>
       <c r="R25">
-        <v>5.050621265436368</v>
+        <v>32.54978491583</v>
       </c>
       <c r="S25">
-        <v>0.02198006397921044</v>
+        <v>0.01932307185726524</v>
       </c>
       <c r="T25">
-        <v>0.02198006397921044</v>
+        <v>0.01592129100443955</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H26">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I26">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J26">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N26">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O26">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P26">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q26">
-        <v>3.597451286367638</v>
+        <v>3.757520385520001</v>
       </c>
       <c r="R26">
-        <v>3.597451286367638</v>
+        <v>22.54512231312</v>
       </c>
       <c r="S26">
-        <v>0.01565593721659148</v>
+        <v>0.01338383708567566</v>
       </c>
       <c r="T26">
-        <v>0.01565593721659148</v>
+        <v>0.01102764439169302</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H27">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I27">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J27">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N27">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O27">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P27">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q27">
-        <v>2.279656875922782</v>
+        <v>2.698119964149334</v>
       </c>
       <c r="R27">
-        <v>2.279656875922782</v>
+        <v>24.283079677344</v>
       </c>
       <c r="S27">
-        <v>0.00992095850194393</v>
+        <v>0.009610379807104183</v>
       </c>
       <c r="T27">
-        <v>0.00992095850194393</v>
+        <v>0.01187774294136614</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H28">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I28">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J28">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N28">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O28">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P28">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q28">
-        <v>3.795457464228917</v>
+        <v>4.967708065984</v>
       </c>
       <c r="R28">
-        <v>3.795457464228917</v>
+        <v>44.709372593856</v>
       </c>
       <c r="S28">
-        <v>0.01651765070270333</v>
+        <v>0.01769438050171102</v>
       </c>
       <c r="T28">
-        <v>0.01651765070270333</v>
+        <v>0.02186899033383504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H29">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I29">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J29">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N29">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O29">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P29">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q29">
-        <v>8.848977670481485</v>
+        <v>12.22550476791467</v>
       </c>
       <c r="R29">
-        <v>8.848977670481485</v>
+        <v>110.029542911232</v>
       </c>
       <c r="S29">
-        <v>0.03851033073472455</v>
+        <v>0.04354578214251714</v>
       </c>
       <c r="T29">
-        <v>0.03851033073472455</v>
+        <v>0.0538194761134422</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H30">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I30">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J30">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N30">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O30">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P30">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q30">
-        <v>1.422515580294422</v>
+        <v>1.656361834837333</v>
       </c>
       <c r="R30">
-        <v>1.422515580294422</v>
+        <v>14.907256513536</v>
       </c>
       <c r="S30">
-        <v>0.006190720274408383</v>
+        <v>0.005899762257530855</v>
       </c>
       <c r="T30">
-        <v>0.006190720274408383</v>
+        <v>0.007291684711391327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.280961251618</v>
+        <v>3.426464000000001</v>
       </c>
       <c r="H31">
-        <v>3.280961251618</v>
+        <v>10.279392</v>
       </c>
       <c r="I31">
-        <v>0.09777508235722643</v>
+        <v>0.09953529518514025</v>
       </c>
       <c r="J31">
-        <v>0.09777508235722643</v>
+        <v>0.1136316411825823</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N31">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O31">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P31">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q31">
-        <v>2.52288710840698</v>
+        <v>2.639379520720001</v>
       </c>
       <c r="R31">
-        <v>2.52288710840698</v>
+        <v>15.83627712432</v>
       </c>
       <c r="S31">
-        <v>0.01097948492685475</v>
+        <v>0.009401153390601389</v>
       </c>
       <c r="T31">
-        <v>0.01097948492685475</v>
+        <v>0.007746102690854559</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H32">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I32">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J32">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.09646259448921</v>
+        <v>1.0966175</v>
       </c>
       <c r="N32">
-        <v>1.09646259448921</v>
+        <v>2.193235</v>
       </c>
       <c r="O32">
-        <v>0.1601219537651902</v>
+        <v>0.134463227951262</v>
       </c>
       <c r="P32">
-        <v>0.1601219537651902</v>
+        <v>0.09704730369927428</v>
       </c>
       <c r="Q32">
-        <v>6.45550007042902</v>
+        <v>6.47279521161625</v>
       </c>
       <c r="R32">
-        <v>6.45550007042902</v>
+        <v>25.891180846465</v>
       </c>
       <c r="S32">
-        <v>0.02809402984477554</v>
+        <v>0.02305532045416292</v>
       </c>
       <c r="T32">
-        <v>0.02809402984477554</v>
+        <v>0.01266432407375646</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H33">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I33">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J33">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.694813714974102</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N33">
-        <v>0.694813714974102</v>
+        <v>2.362307</v>
       </c>
       <c r="O33">
-        <v>0.1014671454399515</v>
+        <v>0.09655248210424686</v>
       </c>
       <c r="P33">
-        <v>0.1014671454399515</v>
+        <v>0.104528481836156</v>
       </c>
       <c r="Q33">
-        <v>4.090764252691982</v>
+        <v>4.647846503138833</v>
       </c>
       <c r="R33">
-        <v>4.090764252691982</v>
+        <v>27.887079018833</v>
       </c>
       <c r="S33">
-        <v>0.01780281182700564</v>
+        <v>0.01655507196633048</v>
       </c>
       <c r="T33">
-        <v>0.01780281182700564</v>
+        <v>0.01364059091237528</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H34">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I34">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J34">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.15681264518354</v>
+        <v>1.449806</v>
       </c>
       <c r="N34">
-        <v>1.15681264518354</v>
+        <v>4.349418</v>
       </c>
       <c r="O34">
-        <v>0.1689351755527571</v>
+        <v>0.177769910349878</v>
       </c>
       <c r="P34">
-        <v>0.1689351755527571</v>
+        <v>0.1924551129090545</v>
       </c>
       <c r="Q34">
-        <v>6.810815207001585</v>
+        <v>8.557493688156999</v>
       </c>
       <c r="R34">
-        <v>6.810815207001585</v>
+        <v>51.344962128942</v>
       </c>
       <c r="S34">
-        <v>0.02964034445127616</v>
+        <v>0.03048076647178084</v>
       </c>
       <c r="T34">
-        <v>0.02964034445127616</v>
+        <v>0.02511470001355517</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H35">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I35">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J35">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.69706863076107</v>
+        <v>3.567965333333333</v>
       </c>
       <c r="N35">
-        <v>2.69706863076107</v>
+        <v>10.703896</v>
       </c>
       <c r="O35">
-        <v>0.3938665128813191</v>
+        <v>0.43749086252791</v>
       </c>
       <c r="P35">
-        <v>0.3938665128813191</v>
+        <v>0.4736310727657762</v>
       </c>
       <c r="Q35">
-        <v>15.87917984921402</v>
+        <v>21.05994927567067</v>
       </c>
       <c r="R35">
-        <v>15.87917984921402</v>
+        <v>126.359695654024</v>
       </c>
       <c r="S35">
-        <v>0.0691054368720237</v>
+        <v>0.0750130142272435</v>
       </c>
       <c r="T35">
-        <v>0.0691054368720237</v>
+        <v>0.06180715144331797</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H36">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I36">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J36">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.433566711460829</v>
+        <v>0.4834026666666666</v>
       </c>
       <c r="N36">
-        <v>0.433566711460829</v>
+        <v>1.450208</v>
       </c>
       <c r="O36">
-        <v>0.06331593004228071</v>
+        <v>0.05927306737330738</v>
       </c>
       <c r="P36">
-        <v>0.06331593004228071</v>
+        <v>0.06416949218990083</v>
       </c>
       <c r="Q36">
-        <v>2.552654281539746</v>
+        <v>2.853288832325333</v>
       </c>
       <c r="R36">
-        <v>2.552654281539746</v>
+        <v>17.119732993952</v>
       </c>
       <c r="S36">
-        <v>0.01110903025119256</v>
+        <v>0.0101630727107646</v>
       </c>
       <c r="T36">
-        <v>0.01110903025119256</v>
+        <v>0.008373887926443909</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.88756981120394</v>
+        <v>5.9025095</v>
       </c>
       <c r="H37">
-        <v>5.88756981120394</v>
+        <v>11.805019</v>
       </c>
       <c r="I37">
-        <v>0.1754539535907353</v>
+        <v>0.1714618993270014</v>
       </c>
       <c r="J37">
-        <v>0.1754539535907353</v>
+        <v>0.1304964032076572</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.768947547662388</v>
+        <v>0.7702925</v>
       </c>
       <c r="N37">
-        <v>0.768947547662388</v>
+        <v>1.540585</v>
       </c>
       <c r="O37">
-        <v>0.1122932823185013</v>
+        <v>0.09445044969339579</v>
       </c>
       <c r="P37">
-        <v>0.1122932823185013</v>
+        <v>0.06816853659983835</v>
       </c>
       <c r="Q37">
-        <v>4.527232368016378</v>
+        <v>4.546658799028751</v>
       </c>
       <c r="R37">
-        <v>4.527232368016378</v>
+        <v>18.186635196115</v>
       </c>
       <c r="S37">
-        <v>0.01970230034446167</v>
+        <v>0.01619465349671904</v>
       </c>
       <c r="T37">
-        <v>0.01970230034446167</v>
+        <v>0.008895748838208444</v>
       </c>
     </row>
   </sheetData>
